--- a/work1_basemodel_effect.xlsx
+++ b/work1_basemodel_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\PterygiumSeg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C771531-6B49-4E6B-8D08-0A8FBF367C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E70AC1-9A96-43CB-BD06-997384BB1632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patience</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,22 +433,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H4" sqref="B4:H4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -460,13 +468,19 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -486,13 +500,19 @@
         <v>3</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2">
         <v>0.85660000000000003</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -512,13 +532,19 @@
         <v>3</v>
       </c>
       <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
         <v>0.82930000000000004</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>2.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -538,13 +564,19 @@
         <v>3</v>
       </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
         <v>0.85809999999999997</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -564,13 +596,19 @@
         <v>3</v>
       </c>
       <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
         <v>0.85140000000000005</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -590,13 +628,19 @@
         <v>3</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6">
         <v>0.86</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -616,13 +660,19 @@
         <v>3</v>
       </c>
       <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7">
         <v>0.84419999999999995</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -642,14 +692,181 @@
         <v>3</v>
       </c>
       <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8">
         <v>0.86339999999999995</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>64</v>
+      </c>
+      <c r="I9">
+        <v>0.83889999999999998</v>
+      </c>
+      <c r="J9">
+        <v>2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>64</v>
+      </c>
+      <c r="I10">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="J10">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>64</v>
+      </c>
+      <c r="I11">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="J11">
+        <v>2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <v>0.8972</v>
+      </c>
+      <c r="J12">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="J13">
+        <v>2.3400000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work1_basemodel_effect.xlsx
+++ b/work1_basemodel_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\PterygiumSeg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E70AC1-9A96-43CB-BD06-997384BB1632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F537B972-6CCD-42F8-A11F-C84AB0FE3BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="22">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>patience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adamw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,22 +441,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -462,25 +471,28 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,26 +505,29 @@
       <c r="D2" s="1">
         <v>1E-4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>32</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.85660000000000003</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -525,26 +540,29 @@
       <c r="D3" s="1">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>32</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.82930000000000004</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -557,26 +575,29 @@
       <c r="D4" s="1">
         <v>1E-4</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="E4" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>32</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.85809999999999997</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -589,26 +610,29 @@
       <c r="D5" s="1">
         <v>1E-4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>32</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.85140000000000005</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -621,26 +645,29 @@
       <c r="D6" s="1">
         <v>1E-4</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
+      <c r="E6" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>32</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.86</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -653,26 +680,29 @@
       <c r="D7" s="1">
         <v>1E-4</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="E7" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>32</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.84419999999999995</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -685,26 +715,29 @@
       <c r="D8" s="1">
         <v>1E-4</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
+      <c r="E8" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>32</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.86339999999999995</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>9.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -717,26 +750,29 @@
       <c r="D9" s="1">
         <v>1E-4</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
+      <c r="E9" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>64</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.83889999999999998</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -749,26 +785,29 @@
       <c r="D10" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
+      <c r="E10" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>64</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.87919999999999998</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -781,26 +820,29 @@
       <c r="D11" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
+      <c r="E11" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>64</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.90129999999999999</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -813,26 +855,29 @@
       <c r="D12" s="1">
         <v>1E-3</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
+      <c r="E12" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>7</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>64</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.8972</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -845,23 +890,131 @@
       <c r="D13" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
+      <c r="E13" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>7</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>64</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.88649999999999995</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="K14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>64</v>
+      </c>
+      <c r="J15">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="K15">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>64</v>
+      </c>
+      <c r="J16">
+        <v>0.9173</v>
+      </c>
+      <c r="K16">
+        <v>1.37E-2</v>
       </c>
     </row>
   </sheetData>
